--- a/analytic_ai.xlsx
+++ b/analytic_ai.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deep Insider\@記事―AI＆DS超入門\02 分析系AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D29954-42B8-4412-B9F7-59138EF75B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95440443-D704-45BC-A51F-484036DD0F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="28785" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="20">
   <si>
     <t>日付</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>回帰分析（曜日と気温から数値予測）</t>
+  </si>
+  <si>
+    <t>休日</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,9 +432,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14378,7 +14378,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -14395,8 +14395,8 @@
         <v>4</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C100" si="0">WEEKDAY(A2)</f>
-        <v>7</v>
+        <f>IF(WEEKDAY(A2,2)&gt;=6,1,0)</f>
+        <v>1</v>
       </c>
       <c r="D2" s="6">
         <v>25</v>
@@ -14413,7 +14413,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C66" si="0">IF(WEEKDAY(A3,2)&gt;=6,1,0)</f>
         <v>1</v>
       </c>
       <c r="D3" s="6">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <v>20</v>
@@ -14450,7 +14450,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <v>18</v>
@@ -14468,7 +14468,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
         <v>22</v>
@@ -14486,7 +14486,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
         <v>24</v>
@@ -14504,7 +14504,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6">
         <v>28</v>
@@ -14522,7 +14522,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" s="6">
         <v>30</v>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
         <v>23</v>
@@ -14576,7 +14576,7 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
         <v>19</v>
@@ -14594,7 +14594,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6">
         <v>21</v>
@@ -14612,7 +14612,7 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
         <v>27</v>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6">
         <v>29</v>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" s="6">
         <v>32</v>
@@ -14684,7 +14684,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6">
         <v>25</v>
@@ -14702,7 +14702,7 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
         <v>20</v>
@@ -14720,7 +14720,7 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="6">
         <v>23</v>
@@ -14738,7 +14738,7 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" s="6">
         <v>26</v>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6">
         <v>30</v>
@@ -14774,7 +14774,7 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23" s="6">
         <v>33</v>
@@ -14810,7 +14810,7 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
         <v>24</v>
@@ -14828,7 +14828,7 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="6">
         <v>19</v>
@@ -14846,7 +14846,7 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="6">
         <v>22</v>
@@ -14864,7 +14864,7 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D28" s="6">
         <v>25</v>
@@ -14882,7 +14882,7 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6">
         <v>28</v>
@@ -14900,7 +14900,7 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D30" s="6">
         <v>31</v>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="6">
         <v>23</v>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
         <v>20</v>
@@ -14972,7 +14972,7 @@
       </c>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6">
         <v>24</v>
@@ -14990,7 +14990,7 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D35" s="6">
         <v>26</v>
@@ -15008,7 +15008,7 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D36" s="6">
         <v>29</v>
@@ -15026,7 +15026,7 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D37" s="6">
         <v>32</v>
@@ -15062,7 +15062,7 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" s="6">
         <v>22</v>
@@ -15080,7 +15080,7 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40" s="6">
         <v>18</v>
@@ -15098,7 +15098,7 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D41" s="6">
         <v>21</v>
@@ -15116,7 +15116,7 @@
       </c>
       <c r="C42" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D42" s="6">
         <v>25</v>
@@ -15134,7 +15134,7 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
         <v>30</v>
@@ -15152,7 +15152,7 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D44" s="6">
         <v>33</v>
@@ -15188,7 +15188,7 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" s="6">
         <v>24</v>
@@ -15206,7 +15206,7 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" s="6">
         <v>19</v>
@@ -15224,7 +15224,7 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D48" s="6">
         <v>22</v>
@@ -15242,7 +15242,7 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D49" s="6">
         <v>25</v>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D50" s="6">
         <v>28</v>
@@ -15278,7 +15278,7 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D51" s="6">
         <v>31</v>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
         <v>23</v>
@@ -15332,7 +15332,7 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D54" s="6">
         <v>20</v>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="C55" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D55" s="6">
         <v>24</v>
@@ -15368,7 +15368,7 @@
       </c>
       <c r="C56" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6">
         <v>26</v>
@@ -15386,7 +15386,7 @@
       </c>
       <c r="C57" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D57" s="6">
         <v>29</v>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="C58" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D58" s="6">
         <v>32</v>
@@ -15440,7 +15440,7 @@
       </c>
       <c r="C60" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" s="6">
         <v>22</v>
@@ -15458,7 +15458,7 @@
       </c>
       <c r="C61" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D61" s="6">
         <v>18</v>
@@ -15476,7 +15476,7 @@
       </c>
       <c r="C62" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D62" s="6">
         <v>21</v>
@@ -15494,7 +15494,7 @@
       </c>
       <c r="C63" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D63" s="6">
         <v>25</v>
@@ -15512,7 +15512,7 @@
       </c>
       <c r="C64" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D64" s="6">
         <v>28</v>
@@ -15530,7 +15530,7 @@
       </c>
       <c r="C65" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D65" s="6">
         <v>31</v>
@@ -15565,8 +15565,8 @@
         <v>6</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="C67:C100" si="1">IF(WEEKDAY(A67,2)&gt;=6,1,0)</f>
+        <v>0</v>
       </c>
       <c r="D67" s="6">
         <v>24</v>
@@ -15583,8 +15583,8 @@
         <v>7</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D68" s="6">
         <v>20</v>
@@ -15601,8 +15601,8 @@
         <v>8</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D69" s="6">
         <v>23</v>
@@ -15619,8 +15619,8 @@
         <v>9</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D70" s="6">
         <v>26</v>
@@ -15637,8 +15637,8 @@
         <v>10</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D71" s="6">
         <v>29</v>
@@ -15655,8 +15655,8 @@
         <v>4</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D72" s="6">
         <v>32</v>
@@ -15673,7 +15673,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D73" s="6">
@@ -15691,8 +15691,8 @@
         <v>6</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D74" s="6">
         <v>22</v>
@@ -15709,8 +15709,8 @@
         <v>7</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D75" s="6">
         <v>19</v>
@@ -15727,8 +15727,8 @@
         <v>8</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D76" s="6">
         <v>21</v>
@@ -15745,8 +15745,8 @@
         <v>10</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D77" s="6">
         <v>28</v>
@@ -15763,8 +15763,8 @@
         <v>4</v>
       </c>
       <c r="C78" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D78" s="6">
         <v>32</v>
@@ -15781,8 +15781,8 @@
         <v>5</v>
       </c>
       <c r="C79" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D79" s="6">
         <v>34</v>
@@ -15799,7 +15799,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D80" s="6">
@@ -15817,8 +15817,8 @@
         <v>7</v>
       </c>
       <c r="C81" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D81" s="6">
         <v>20</v>
@@ -15835,8 +15835,8 @@
         <v>8</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D82" s="6">
         <v>24</v>
@@ -15853,8 +15853,8 @@
         <v>9</v>
       </c>
       <c r="C83" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D83" s="6">
         <v>26</v>
@@ -15871,8 +15871,8 @@
         <v>10</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D84" s="6">
         <v>29</v>
@@ -15889,8 +15889,8 @@
         <v>4</v>
       </c>
       <c r="C85" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D85" s="6">
         <v>32</v>
@@ -15907,8 +15907,8 @@
         <v>5</v>
       </c>
       <c r="C86" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D86" s="6">
         <v>33</v>
@@ -15925,7 +15925,7 @@
         <v>6</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D87" s="6">
@@ -15943,8 +15943,8 @@
         <v>7</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D88" s="6">
         <v>19</v>
@@ -15961,8 +15961,8 @@
         <v>8</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D89" s="6">
         <v>21</v>
@@ -15979,8 +15979,8 @@
         <v>9</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D90" s="6">
         <v>25</v>
@@ -15997,8 +15997,8 @@
         <v>10</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D91" s="6">
         <v>28</v>
@@ -16015,8 +16015,8 @@
         <v>5</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D92" s="6">
         <v>34</v>
@@ -16033,7 +16033,7 @@
         <v>6</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D93" s="6">
@@ -16051,8 +16051,8 @@
         <v>7</v>
       </c>
       <c r="C94" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D94" s="6">
         <v>20</v>
@@ -16069,8 +16069,8 @@
         <v>8</v>
       </c>
       <c r="C95" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D95" s="6">
         <v>23</v>
@@ -16087,8 +16087,8 @@
         <v>9</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D96" s="6">
         <v>26</v>
@@ -16105,8 +16105,8 @@
         <v>10</v>
       </c>
       <c r="C97" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D97" s="6">
         <v>29</v>
@@ -16123,8 +16123,8 @@
         <v>4</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D98" s="6">
         <v>32</v>
@@ -16141,8 +16141,8 @@
         <v>5</v>
       </c>
       <c r="C99" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D99" s="6">
         <v>33</v>
@@ -16159,7 +16159,7 @@
         <v>6</v>
       </c>
       <c r="C100" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D100" s="6">
@@ -20723,8 +20723,8 @@
         <v>4</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C100" si="0">WEEKDAY(A2)</f>
-        <v>7</v>
+        <f>IF(WEEKDAY(A2,2)&gt;=6,1,0)</f>
+        <v>1</v>
       </c>
       <c r="D2" s="6">
         <v>25</v>
@@ -20741,7 +20741,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C66" si="0">IF(WEEKDAY(A3,2)&gt;=6,1,0)</f>
         <v>1</v>
       </c>
       <c r="D3" s="6">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <v>20</v>
@@ -20778,7 +20778,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <v>18</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
         <v>22</v>
@@ -20814,7 +20814,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
         <v>24</v>
@@ -20832,7 +20832,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6">
         <v>28</v>
@@ -20850,7 +20850,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" s="6">
         <v>30</v>
@@ -20886,7 +20886,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
         <v>23</v>
@@ -20904,7 +20904,7 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
         <v>19</v>
@@ -20922,7 +20922,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6">
         <v>21</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
         <v>27</v>
@@ -20958,7 +20958,7 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6">
         <v>29</v>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" s="6">
         <v>32</v>
@@ -21020,7 +21020,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6">
         <v>25</v>
@@ -21042,7 +21042,7 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
         <v>20</v>
@@ -21064,7 +21064,7 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="6">
         <v>23</v>
@@ -21086,7 +21086,7 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" s="6">
         <v>26</v>
@@ -21104,7 +21104,7 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6">
         <v>30</v>
@@ -21122,7 +21122,7 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23" s="6">
         <v>33</v>
@@ -21158,7 +21158,7 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
         <v>24</v>
@@ -21176,7 +21176,7 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="6">
         <v>19</v>
@@ -21194,7 +21194,7 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="6">
         <v>22</v>
@@ -21212,7 +21212,7 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D28" s="6">
         <v>25</v>
@@ -21230,7 +21230,7 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6">
         <v>28</v>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D30" s="6">
         <v>31</v>
@@ -21284,7 +21284,7 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="6">
         <v>23</v>
@@ -21302,7 +21302,7 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
         <v>20</v>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6">
         <v>24</v>
@@ -21338,7 +21338,7 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D35" s="6">
         <v>26</v>
@@ -21356,7 +21356,7 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D36" s="6">
         <v>29</v>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D37" s="6">
         <v>32</v>
@@ -21410,7 +21410,7 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" s="6">
         <v>22</v>
@@ -21428,7 +21428,7 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40" s="6">
         <v>18</v>
@@ -21446,7 +21446,7 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D41" s="6">
         <v>21</v>
@@ -21464,7 +21464,7 @@
       </c>
       <c r="C42" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D42" s="6">
         <v>25</v>
@@ -21482,7 +21482,7 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
         <v>30</v>
@@ -21500,7 +21500,7 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D44" s="6">
         <v>33</v>
@@ -21536,7 +21536,7 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" s="6">
         <v>24</v>
@@ -21554,7 +21554,7 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" s="6">
         <v>19</v>
@@ -21572,7 +21572,7 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D48" s="6">
         <v>22</v>
@@ -21590,7 +21590,7 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D49" s="6">
         <v>25</v>
@@ -21608,7 +21608,7 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D50" s="6">
         <v>28</v>
@@ -21626,7 +21626,7 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D51" s="6">
         <v>31</v>
@@ -21662,7 +21662,7 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
         <v>23</v>
@@ -21680,7 +21680,7 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D54" s="6">
         <v>20</v>
@@ -21698,7 +21698,7 @@
       </c>
       <c r="C55" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D55" s="6">
         <v>24</v>
@@ -21716,7 +21716,7 @@
       </c>
       <c r="C56" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6">
         <v>26</v>
@@ -21734,7 +21734,7 @@
       </c>
       <c r="C57" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D57" s="6">
         <v>29</v>
@@ -21752,7 +21752,7 @@
       </c>
       <c r="C58" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D58" s="6">
         <v>32</v>
@@ -21788,7 +21788,7 @@
       </c>
       <c r="C60" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" s="6">
         <v>22</v>
@@ -21806,7 +21806,7 @@
       </c>
       <c r="C61" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D61" s="6">
         <v>18</v>
@@ -21824,7 +21824,7 @@
       </c>
       <c r="C62" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D62" s="6">
         <v>21</v>
@@ -21842,7 +21842,7 @@
       </c>
       <c r="C63" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D63" s="6">
         <v>25</v>
@@ -21860,7 +21860,7 @@
       </c>
       <c r="C64" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D64" s="6">
         <v>28</v>
@@ -21878,7 +21878,7 @@
       </c>
       <c r="C65" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D65" s="6">
         <v>31</v>
@@ -21913,8 +21913,8 @@
         <v>6</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="C67:C100" si="1">IF(WEEKDAY(A67,2)&gt;=6,1,0)</f>
+        <v>0</v>
       </c>
       <c r="D67" s="6">
         <v>24</v>
@@ -21931,8 +21931,8 @@
         <v>7</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D68" s="6">
         <v>20</v>
@@ -21949,8 +21949,8 @@
         <v>8</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D69" s="6">
         <v>23</v>
@@ -21967,8 +21967,8 @@
         <v>9</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D70" s="6">
         <v>26</v>
@@ -21985,8 +21985,8 @@
         <v>10</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D71" s="6">
         <v>29</v>
@@ -22003,8 +22003,8 @@
         <v>4</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D72" s="6">
         <v>32</v>
@@ -22021,7 +22021,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D73" s="6">
@@ -22039,8 +22039,8 @@
         <v>6</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D74" s="6">
         <v>22</v>
@@ -22057,8 +22057,8 @@
         <v>7</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D75" s="6">
         <v>19</v>
@@ -22075,8 +22075,8 @@
         <v>8</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D76" s="6">
         <v>21</v>
@@ -22093,8 +22093,8 @@
         <v>10</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D77" s="6">
         <v>28</v>
@@ -22111,8 +22111,8 @@
         <v>4</v>
       </c>
       <c r="C78" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D78" s="6">
         <v>32</v>
@@ -22129,8 +22129,8 @@
         <v>5</v>
       </c>
       <c r="C79" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D79" s="6">
         <v>34</v>
@@ -22147,7 +22147,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D80" s="6">
@@ -22165,8 +22165,8 @@
         <v>7</v>
       </c>
       <c r="C81" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D81" s="6">
         <v>20</v>
@@ -22183,8 +22183,8 @@
         <v>8</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D82" s="6">
         <v>24</v>
@@ -22201,8 +22201,8 @@
         <v>9</v>
       </c>
       <c r="C83" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D83" s="6">
         <v>26</v>
@@ -22219,8 +22219,8 @@
         <v>10</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D84" s="6">
         <v>29</v>
@@ -22237,8 +22237,8 @@
         <v>4</v>
       </c>
       <c r="C85" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D85" s="6">
         <v>32</v>
@@ -22255,8 +22255,8 @@
         <v>5</v>
       </c>
       <c r="C86" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D86" s="6">
         <v>33</v>
@@ -22273,7 +22273,7 @@
         <v>6</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D87" s="6">
@@ -22291,8 +22291,8 @@
         <v>7</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D88" s="6">
         <v>19</v>
@@ -22309,8 +22309,8 @@
         <v>8</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D89" s="6">
         <v>21</v>
@@ -22327,8 +22327,8 @@
         <v>9</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D90" s="6">
         <v>25</v>
@@ -22345,8 +22345,8 @@
         <v>10</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D91" s="6">
         <v>28</v>
@@ -22363,8 +22363,8 @@
         <v>5</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D92" s="6">
         <v>34</v>
@@ -22381,7 +22381,7 @@
         <v>6</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D93" s="6">
@@ -22399,8 +22399,8 @@
         <v>7</v>
       </c>
       <c r="C94" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D94" s="6">
         <v>20</v>
@@ -22417,8 +22417,8 @@
         <v>8</v>
       </c>
       <c r="C95" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D95" s="6">
         <v>23</v>
@@ -22435,8 +22435,8 @@
         <v>9</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D96" s="6">
         <v>26</v>
@@ -22453,8 +22453,8 @@
         <v>10</v>
       </c>
       <c r="C97" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D97" s="6">
         <v>29</v>
@@ -22471,8 +22471,8 @@
         <v>4</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D98" s="6">
         <v>32</v>
@@ -22489,8 +22489,8 @@
         <v>5</v>
       </c>
       <c r="C99" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D99" s="6">
         <v>33</v>
@@ -22507,7 +22507,7 @@
         <v>6</v>
       </c>
       <c r="C100" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D100" s="6">
@@ -27031,7 +27031,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
@@ -27072,8 +27072,8 @@
         <v>4</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C102" si="0">WEEKDAY(A2)</f>
-        <v>7</v>
+        <f>IF(WEEKDAY(A2,2)&gt;=6,1,0)</f>
+        <v>1</v>
       </c>
       <c r="D2" s="6">
         <v>25</v>
@@ -27090,7 +27090,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C66" si="0">IF(WEEKDAY(A3,2)&gt;=6,1,0)</f>
         <v>1</v>
       </c>
       <c r="D3" s="6">
@@ -27109,7 +27109,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <v>20</v>
@@ -27127,7 +27127,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <v>18</v>
@@ -27145,7 +27145,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
         <v>22</v>
@@ -27163,7 +27163,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
         <v>24</v>
@@ -27181,7 +27181,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6">
         <v>28</v>
@@ -27199,7 +27199,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" s="6">
         <v>30</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
         <v>23</v>
@@ -27253,7 +27253,7 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
         <v>19</v>
@@ -27271,7 +27271,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6">
         <v>21</v>
@@ -27289,7 +27289,7 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
         <v>27</v>
@@ -27307,7 +27307,7 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6">
         <v>29</v>
@@ -27325,7 +27325,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" s="6">
         <v>32</v>
@@ -27375,7 +27375,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6">
         <v>25</v>
@@ -27400,7 +27400,7 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
         <v>20</v>
@@ -27425,7 +27425,7 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="6">
         <v>23</v>
@@ -27450,7 +27450,7 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" s="6">
         <v>26</v>
@@ -27468,7 +27468,7 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6">
         <v>30</v>
@@ -27486,7 +27486,7 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23" s="6">
         <v>33</v>
@@ -27522,7 +27522,7 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
         <v>24</v>
@@ -27540,7 +27540,7 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="6">
         <v>19</v>
@@ -27558,7 +27558,7 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="6">
         <v>22</v>
@@ -27576,7 +27576,7 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D28" s="6">
         <v>25</v>
@@ -27594,7 +27594,7 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6">
         <v>28</v>
@@ -27612,7 +27612,7 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D30" s="6">
         <v>31</v>
@@ -27648,7 +27648,7 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="6">
         <v>23</v>
@@ -27666,7 +27666,7 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
         <v>20</v>
@@ -27684,7 +27684,7 @@
       </c>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6">
         <v>24</v>
@@ -27702,7 +27702,7 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D35" s="6">
         <v>26</v>
@@ -27720,7 +27720,7 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D36" s="6">
         <v>29</v>
@@ -27738,7 +27738,7 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D37" s="6">
         <v>32</v>
@@ -27774,7 +27774,7 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" s="6">
         <v>22</v>
@@ -27792,7 +27792,7 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40" s="6">
         <v>18</v>
@@ -27810,7 +27810,7 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D41" s="6">
         <v>21</v>
@@ -27828,7 +27828,7 @@
       </c>
       <c r="C42" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D42" s="6">
         <v>25</v>
@@ -27846,7 +27846,7 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
         <v>30</v>
@@ -27864,7 +27864,7 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D44" s="6">
         <v>33</v>
@@ -27900,7 +27900,7 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" s="6">
         <v>24</v>
@@ -27918,7 +27918,7 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" s="6">
         <v>19</v>
@@ -27936,7 +27936,7 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D48" s="6">
         <v>22</v>
@@ -27954,7 +27954,7 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D49" s="6">
         <v>25</v>
@@ -27972,7 +27972,7 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D50" s="6">
         <v>28</v>
@@ -27990,7 +27990,7 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D51" s="6">
         <v>31</v>
@@ -28026,7 +28026,7 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
         <v>23</v>
@@ -28044,7 +28044,7 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D54" s="6">
         <v>20</v>
@@ -28062,7 +28062,7 @@
       </c>
       <c r="C55" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D55" s="6">
         <v>24</v>
@@ -28080,7 +28080,7 @@
       </c>
       <c r="C56" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6">
         <v>26</v>
@@ -28098,7 +28098,7 @@
       </c>
       <c r="C57" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D57" s="6">
         <v>29</v>
@@ -28116,7 +28116,7 @@
       </c>
       <c r="C58" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D58" s="6">
         <v>32</v>
@@ -28152,7 +28152,7 @@
       </c>
       <c r="C60" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" s="6">
         <v>22</v>
@@ -28170,7 +28170,7 @@
       </c>
       <c r="C61" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D61" s="6">
         <v>18</v>
@@ -28188,7 +28188,7 @@
       </c>
       <c r="C62" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D62" s="6">
         <v>21</v>
@@ -28206,7 +28206,7 @@
       </c>
       <c r="C63" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D63" s="6">
         <v>25</v>
@@ -28224,7 +28224,7 @@
       </c>
       <c r="C64" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D64" s="6">
         <v>28</v>
@@ -28242,7 +28242,7 @@
       </c>
       <c r="C65" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D65" s="6">
         <v>31</v>
@@ -28277,8 +28277,8 @@
         <v>6</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="C67:C101" si="1">IF(WEEKDAY(A67,2)&gt;=6,1,0)</f>
+        <v>0</v>
       </c>
       <c r="D67" s="6">
         <v>24</v>
@@ -28295,8 +28295,8 @@
         <v>7</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D68" s="6">
         <v>20</v>
@@ -28313,8 +28313,8 @@
         <v>8</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D69" s="6">
         <v>23</v>
@@ -28331,8 +28331,8 @@
         <v>9</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D70" s="6">
         <v>26</v>
@@ -28349,8 +28349,8 @@
         <v>10</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D71" s="6">
         <v>29</v>
@@ -28367,8 +28367,8 @@
         <v>4</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D72" s="6">
         <v>32</v>
@@ -28385,7 +28385,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D73" s="6">
@@ -28403,8 +28403,8 @@
         <v>6</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D74" s="6">
         <v>22</v>
@@ -28421,8 +28421,8 @@
         <v>7</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D75" s="6">
         <v>19</v>
@@ -28439,8 +28439,8 @@
         <v>8</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D76" s="6">
         <v>21</v>
@@ -28457,8 +28457,8 @@
         <v>10</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D77" s="6">
         <v>28</v>
@@ -28475,8 +28475,8 @@
         <v>4</v>
       </c>
       <c r="C78" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D78" s="6">
         <v>32</v>
@@ -28493,8 +28493,8 @@
         <v>5</v>
       </c>
       <c r="C79" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D79" s="6">
         <v>34</v>
@@ -28511,7 +28511,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D80" s="6">
@@ -28529,8 +28529,8 @@
         <v>7</v>
       </c>
       <c r="C81" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D81" s="6">
         <v>20</v>
@@ -28547,8 +28547,8 @@
         <v>8</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D82" s="6">
         <v>24</v>
@@ -28565,8 +28565,8 @@
         <v>9</v>
       </c>
       <c r="C83" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D83" s="6">
         <v>26</v>
@@ -28583,8 +28583,8 @@
         <v>10</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D84" s="6">
         <v>29</v>
@@ -28601,8 +28601,8 @@
         <v>4</v>
       </c>
       <c r="C85" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D85" s="6">
         <v>32</v>
@@ -28619,8 +28619,8 @@
         <v>5</v>
       </c>
       <c r="C86" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D86" s="6">
         <v>33</v>
@@ -28637,7 +28637,7 @@
         <v>6</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D87" s="6">
@@ -28655,8 +28655,8 @@
         <v>7</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D88" s="6">
         <v>19</v>
@@ -28673,8 +28673,8 @@
         <v>8</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D89" s="6">
         <v>21</v>
@@ -28691,8 +28691,8 @@
         <v>9</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D90" s="6">
         <v>25</v>
@@ -28709,8 +28709,8 @@
         <v>10</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D91" s="6">
         <v>28</v>
@@ -28727,8 +28727,8 @@
         <v>5</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D92" s="6">
         <v>34</v>
@@ -28745,7 +28745,7 @@
         <v>6</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D93" s="6">
@@ -28763,8 +28763,8 @@
         <v>7</v>
       </c>
       <c r="C94" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D94" s="6">
         <v>20</v>
@@ -28781,8 +28781,8 @@
         <v>8</v>
       </c>
       <c r="C95" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D95" s="6">
         <v>23</v>
@@ -28799,8 +28799,8 @@
         <v>9</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D96" s="6">
         <v>26</v>
@@ -28817,8 +28817,8 @@
         <v>10</v>
       </c>
       <c r="C97" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D97" s="6">
         <v>29</v>
@@ -28835,8 +28835,8 @@
         <v>4</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D98" s="6">
         <v>32</v>
@@ -28853,8 +28853,8 @@
         <v>5</v>
       </c>
       <c r="C99" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D99" s="6">
         <v>33</v>
@@ -28870,58 +28870,58 @@
       <c r="B100" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="14">
-        <f t="shared" si="0"/>
+      <c r="C100" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="14">
         <v>22</v>
       </c>
-      <c r="E100" s="16">
+      <c r="E100" s="15">
         <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A101" s="17">
+      <c r="A101" s="16">
         <v>45117</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D101" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D101" s="18">
         <v>25</v>
       </c>
-      <c r="E101" s="20"/>
-      <c r="F101" s="22" t="s">
+      <c r="E101" s="19"/>
+      <c r="F101" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G101" s="23"/>
-      <c r="H101" s="24"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="23"/>
     </row>
     <row r="102" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A102" s="17">
+      <c r="A102" s="16">
         <v>45117</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D102" s="19">
+      <c r="C102" s="20">
+        <f>IF(WEEKDAY(A102,2)&gt;=6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="18">
         <v>25</v>
       </c>
-      <c r="E102" s="20"/>
-      <c r="F102" s="22" t="s">
+      <c r="E102" s="19"/>
+      <c r="F102" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G102" s="23"/>
-      <c r="H102" s="24"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="23"/>
     </row>
     <row r="103" spans="1:8" ht="18.75" customHeight="1">
       <c r="A103" s="8"/>
@@ -33431,7 +33431,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
@@ -33472,8 +33472,8 @@
         <v>4</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C102" si="0">WEEKDAY(A2)</f>
-        <v>7</v>
+        <f>IF(WEEKDAY(A2,2)&gt;=6,1,0)</f>
+        <v>1</v>
       </c>
       <c r="D2" s="6">
         <v>25</v>
@@ -33490,7 +33490,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C66" si="0">IF(WEEKDAY(A3,2)&gt;=6,1,0)</f>
         <v>1</v>
       </c>
       <c r="D3" s="6">
@@ -33509,7 +33509,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <v>20</v>
@@ -33527,7 +33527,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <v>18</v>
@@ -33545,7 +33545,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
         <v>22</v>
@@ -33563,7 +33563,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
         <v>24</v>
@@ -33581,7 +33581,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6">
         <v>28</v>
@@ -33599,7 +33599,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" s="6">
         <v>30</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
         <v>23</v>
@@ -33653,7 +33653,7 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
         <v>19</v>
@@ -33671,7 +33671,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6">
         <v>21</v>
@@ -33689,7 +33689,7 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
         <v>27</v>
@@ -33707,7 +33707,7 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6">
         <v>29</v>
@@ -33725,7 +33725,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" s="6">
         <v>32</v>
@@ -33775,7 +33775,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6">
         <v>25</v>
@@ -33800,7 +33800,7 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
         <v>20</v>
@@ -33825,7 +33825,7 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="6">
         <v>23</v>
@@ -33850,7 +33850,7 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" s="6">
         <v>26</v>
@@ -33868,7 +33868,7 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6">
         <v>30</v>
@@ -33886,7 +33886,7 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23" s="6">
         <v>33</v>
@@ -33922,7 +33922,7 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
         <v>24</v>
@@ -33940,7 +33940,7 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="6">
         <v>19</v>
@@ -33958,7 +33958,7 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="6">
         <v>22</v>
@@ -33976,7 +33976,7 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D28" s="6">
         <v>25</v>
@@ -33994,7 +33994,7 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6">
         <v>28</v>
@@ -34012,7 +34012,7 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D30" s="6">
         <v>31</v>
@@ -34048,7 +34048,7 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="6">
         <v>23</v>
@@ -34066,7 +34066,7 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
         <v>20</v>
@@ -34084,7 +34084,7 @@
       </c>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6">
         <v>24</v>
@@ -34102,7 +34102,7 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D35" s="6">
         <v>26</v>
@@ -34120,7 +34120,7 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D36" s="6">
         <v>29</v>
@@ -34138,7 +34138,7 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D37" s="6">
         <v>32</v>
@@ -34174,7 +34174,7 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" s="6">
         <v>22</v>
@@ -34192,7 +34192,7 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40" s="6">
         <v>18</v>
@@ -34210,7 +34210,7 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D41" s="6">
         <v>21</v>
@@ -34228,7 +34228,7 @@
       </c>
       <c r="C42" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D42" s="6">
         <v>25</v>
@@ -34246,7 +34246,7 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
         <v>30</v>
@@ -34264,7 +34264,7 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D44" s="6">
         <v>33</v>
@@ -34300,7 +34300,7 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" s="6">
         <v>24</v>
@@ -34318,7 +34318,7 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" s="6">
         <v>19</v>
@@ -34336,7 +34336,7 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D48" s="6">
         <v>22</v>
@@ -34354,7 +34354,7 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D49" s="6">
         <v>25</v>
@@ -34372,7 +34372,7 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D50" s="6">
         <v>28</v>
@@ -34390,7 +34390,7 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D51" s="6">
         <v>31</v>
@@ -34426,7 +34426,7 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
         <v>23</v>
@@ -34444,7 +34444,7 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D54" s="6">
         <v>20</v>
@@ -34462,7 +34462,7 @@
       </c>
       <c r="C55" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D55" s="6">
         <v>24</v>
@@ -34480,7 +34480,7 @@
       </c>
       <c r="C56" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6">
         <v>26</v>
@@ -34498,7 +34498,7 @@
       </c>
       <c r="C57" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D57" s="6">
         <v>29</v>
@@ -34516,7 +34516,7 @@
       </c>
       <c r="C58" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D58" s="6">
         <v>32</v>
@@ -34552,7 +34552,7 @@
       </c>
       <c r="C60" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" s="6">
         <v>22</v>
@@ -34570,7 +34570,7 @@
       </c>
       <c r="C61" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D61" s="6">
         <v>18</v>
@@ -34588,7 +34588,7 @@
       </c>
       <c r="C62" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D62" s="6">
         <v>21</v>
@@ -34606,7 +34606,7 @@
       </c>
       <c r="C63" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D63" s="6">
         <v>25</v>
@@ -34624,7 +34624,7 @@
       </c>
       <c r="C64" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D64" s="6">
         <v>28</v>
@@ -34642,7 +34642,7 @@
       </c>
       <c r="C65" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D65" s="6">
         <v>31</v>
@@ -34677,8 +34677,8 @@
         <v>6</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="C67:C101" si="1">IF(WEEKDAY(A67,2)&gt;=6,1,0)</f>
+        <v>0</v>
       </c>
       <c r="D67" s="6">
         <v>24</v>
@@ -34695,8 +34695,8 @@
         <v>7</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D68" s="6">
         <v>20</v>
@@ -34713,8 +34713,8 @@
         <v>8</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D69" s="6">
         <v>23</v>
@@ -34731,8 +34731,8 @@
         <v>9</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D70" s="6">
         <v>26</v>
@@ -34749,8 +34749,8 @@
         <v>10</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D71" s="6">
         <v>29</v>
@@ -34767,8 +34767,8 @@
         <v>4</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D72" s="6">
         <v>32</v>
@@ -34785,7 +34785,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D73" s="6">
@@ -34803,8 +34803,8 @@
         <v>6</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D74" s="6">
         <v>22</v>
@@ -34821,8 +34821,8 @@
         <v>7</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D75" s="6">
         <v>19</v>
@@ -34839,8 +34839,8 @@
         <v>8</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D76" s="6">
         <v>21</v>
@@ -34857,8 +34857,8 @@
         <v>10</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D77" s="6">
         <v>28</v>
@@ -34875,8 +34875,8 @@
         <v>4</v>
       </c>
       <c r="C78" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D78" s="6">
         <v>32</v>
@@ -34893,8 +34893,8 @@
         <v>5</v>
       </c>
       <c r="C79" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D79" s="6">
         <v>34</v>
@@ -34911,7 +34911,7 @@
         <v>6</v>
       </c>
       <c r="C80" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D80" s="6">
@@ -34929,8 +34929,8 @@
         <v>7</v>
       </c>
       <c r="C81" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D81" s="6">
         <v>20</v>
@@ -34947,8 +34947,8 @@
         <v>8</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D82" s="6">
         <v>24</v>
@@ -34965,8 +34965,8 @@
         <v>9</v>
       </c>
       <c r="C83" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D83" s="6">
         <v>26</v>
@@ -34983,8 +34983,8 @@
         <v>10</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D84" s="6">
         <v>29</v>
@@ -35001,8 +35001,8 @@
         <v>4</v>
       </c>
       <c r="C85" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D85" s="6">
         <v>32</v>
@@ -35019,8 +35019,8 @@
         <v>5</v>
       </c>
       <c r="C86" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D86" s="6">
         <v>33</v>
@@ -35037,7 +35037,7 @@
         <v>6</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D87" s="6">
@@ -35055,8 +35055,8 @@
         <v>7</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D88" s="6">
         <v>19</v>
@@ -35073,8 +35073,8 @@
         <v>8</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D89" s="6">
         <v>21</v>
@@ -35091,8 +35091,8 @@
         <v>9</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D90" s="6">
         <v>25</v>
@@ -35109,8 +35109,8 @@
         <v>10</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D91" s="6">
         <v>28</v>
@@ -35127,8 +35127,8 @@
         <v>5</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D92" s="6">
         <v>34</v>
@@ -35145,7 +35145,7 @@
         <v>6</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D93" s="6">
@@ -35163,8 +35163,8 @@
         <v>7</v>
       </c>
       <c r="C94" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D94" s="6">
         <v>20</v>
@@ -35181,8 +35181,8 @@
         <v>8</v>
       </c>
       <c r="C95" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D95" s="6">
         <v>23</v>
@@ -35199,8 +35199,8 @@
         <v>9</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D96" s="6">
         <v>26</v>
@@ -35217,8 +35217,8 @@
         <v>10</v>
       </c>
       <c r="C97" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D97" s="6">
         <v>29</v>
@@ -35235,8 +35235,8 @@
         <v>4</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D98" s="6">
         <v>32</v>
@@ -35253,8 +35253,8 @@
         <v>5</v>
       </c>
       <c r="C99" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D99" s="6">
         <v>33</v>
@@ -35270,64 +35270,64 @@
       <c r="B100" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="14">
-        <f t="shared" si="0"/>
+      <c r="C100" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="14">
         <v>22</v>
       </c>
-      <c r="E100" s="16">
+      <c r="E100" s="15">
         <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A101" s="17">
+      <c r="A101" s="16">
         <v>45117</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D101" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D101" s="18">
         <v>25</v>
       </c>
-      <c r="E101" s="20">
+      <c r="E101" s="19">
         <f t="array" ref="E101">TREND(E2:E100,D2:D100,D101)</f>
         <v>111.239989288434</v>
       </c>
-      <c r="F101" s="22" t="s">
+      <c r="F101" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G101" s="23"/>
-      <c r="H101" s="24"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="23"/>
     </row>
     <row r="102" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A102" s="17">
+      <c r="A102" s="16">
         <v>45117</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D102" s="19">
+      <c r="C102" s="20">
+        <f>IF(WEEKDAY(A102,2)&gt;=6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="18">
         <v>25</v>
       </c>
-      <c r="E102" s="20">
+      <c r="E102" s="19">
         <f t="array" ref="E102">TREND(E2:E100,C2:D100,C101:D101)</f>
-        <v>113.14517635287061</v>
-      </c>
-      <c r="F102" s="22" t="s">
+        <v>109.30467882931181</v>
+      </c>
+      <c r="F102" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G102" s="23"/>
-      <c r="H102" s="24"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="23"/>
     </row>
     <row r="103" spans="1:8" ht="18.75" customHeight="1">
       <c r="A103" s="8"/>

--- a/analytic_ai.xlsx
+++ b/analytic_ai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deep Insider\@記事―AI＆DS超入門\02 分析系AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95440443-D704-45BC-A51F-484036DD0F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8A91C5-121B-4328-9BBA-662AA244B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28785" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="32640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="生データ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
   <si>
     <t>日付</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>金</t>
-  </si>
-  <si>
-    <t>曜日番号</t>
   </si>
   <si>
     <t>相関係数</t>
@@ -14378,7 +14375,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -20706,7 +20703,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -20985,7 +20982,7 @@
         <v>160</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -21007,7 +21004,7 @@
         <v>180</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="12"/>
     </row>
@@ -21029,7 +21026,7 @@
         <v>100</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="12"/>
     </row>
@@ -21051,7 +21048,7 @@
         <v>85</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="13"/>
     </row>
@@ -21073,7 +21070,7 @@
         <v>95</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -27055,7 +27052,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -27334,7 +27331,7 @@
         <v>160</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="11">
         <f>CORREL(D2:D100,E2:E100)</f>
@@ -27359,7 +27356,7 @@
         <v>180</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="12">
         <f>AVERAGE(E2:E100)</f>
@@ -27384,7 +27381,7 @@
         <v>100</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="12">
         <f>MEDIAN(E2:E100)</f>
@@ -27409,7 +27406,7 @@
         <v>85</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="13">
         <f t="array" ref="H19">_xlfn.MODE.MULT(E2:E100)</f>
@@ -27434,7 +27431,7 @@
         <v>95</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="12">
         <f>_xlfn.STDEV.P(E2:E100)</f>
@@ -28897,7 +28894,7 @@
       </c>
       <c r="E101" s="19"/>
       <c r="F101" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G101" s="22"/>
       <c r="H101" s="23"/>
@@ -28918,7 +28915,7 @@
       </c>
       <c r="E102" s="19"/>
       <c r="F102" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G102" s="22"/>
       <c r="H102" s="23"/>
@@ -33431,7 +33428,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
@@ -33455,7 +33452,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -33734,7 +33731,7 @@
         <v>160</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="11">
         <f>CORREL(D2:D100,E2:E100)</f>
@@ -33759,7 +33756,7 @@
         <v>180</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="12">
         <f>AVERAGE(E2:E100)</f>
@@ -33784,7 +33781,7 @@
         <v>100</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="12">
         <f>MEDIAN(E2:E100)</f>
@@ -33809,7 +33806,7 @@
         <v>85</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="13">
         <f t="array" ref="H19">_xlfn.MODE.MULT(E2:E100)</f>
@@ -33834,7 +33831,7 @@
         <v>95</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="12">
         <f>_xlfn.STDEV.P(E2:E100)</f>
@@ -35300,7 +35297,7 @@
         <v>111.239989288434</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G101" s="22"/>
       <c r="H101" s="23"/>
@@ -35324,7 +35321,7 @@
         <v>109.30467882931181</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G102" s="22"/>
       <c r="H102" s="23"/>

--- a/analytic_ai.xlsx
+++ b/analytic_ai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deep Insider\@記事―AI＆DS超入門\02 分析系AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8A91C5-121B-4328-9BBA-662AA244B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106D6716-9BAC-4124-8041-CFC1C2578C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="32640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="22">
   <si>
     <t>日付</t>
   </si>
@@ -84,10 +84,28 @@
     <t>回帰分析（気温から数値予測）</t>
   </si>
   <si>
-    <t>回帰分析（曜日と気温から数値予測）</t>
+    <t>休日</t>
   </si>
   <si>
-    <t>休日</t>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>回帰分析（気温から数値予測）</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>回帰分析（休日と気温から数値予測）</t>
   </si>
 </sst>
 </file>
@@ -5370,7 +5388,7 @@
         <v>45092</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="6">
         <v>28</v>
@@ -5384,7 +5402,7 @@
         <v>45093</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C78" s="6">
         <v>32</v>
@@ -5398,7 +5416,7 @@
         <v>45094</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="6">
         <v>34</v>
@@ -5412,7 +5430,7 @@
         <v>45095</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="6">
         <v>23</v>
@@ -5426,7 +5444,7 @@
         <v>45096</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" s="6">
         <v>20</v>
@@ -5440,7 +5458,7 @@
         <v>45097</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" s="6">
         <v>24</v>
@@ -5454,7 +5472,7 @@
         <v>45098</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="6">
         <v>26</v>
@@ -5468,7 +5486,7 @@
         <v>45099</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="6">
         <v>29</v>
@@ -5482,7 +5500,7 @@
         <v>45100</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C85" s="6">
         <v>32</v>
@@ -5496,7 +5514,7 @@
         <v>45101</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="6">
         <v>33</v>
@@ -5510,7 +5528,7 @@
         <v>45102</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" s="6">
         <v>22</v>
@@ -5524,7 +5542,7 @@
         <v>45103</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" s="6">
         <v>19</v>
@@ -5538,7 +5556,7 @@
         <v>45104</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" s="6">
         <v>21</v>
@@ -5552,7 +5570,7 @@
         <v>45105</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" s="6">
         <v>25</v>
@@ -5566,7 +5584,7 @@
         <v>45106</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="6">
         <v>28</v>
@@ -5580,7 +5598,7 @@
         <v>45107</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C92" s="6">
         <v>31</v>
@@ -5592,7 +5610,7 @@
         <v>45108</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="6">
         <v>34</v>
@@ -5606,7 +5624,7 @@
         <v>45109</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" s="6">
         <v>23</v>
@@ -5620,7 +5638,7 @@
         <v>45110</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" s="6">
         <v>20</v>
@@ -5634,7 +5652,7 @@
         <v>45111</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" s="6">
         <v>23</v>
@@ -5648,7 +5666,7 @@
         <v>45112</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" s="6">
         <v>26</v>
@@ -5662,7 +5680,7 @@
         <v>45113</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" s="6">
         <v>29</v>
@@ -5676,7 +5694,7 @@
         <v>45114</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C99" s="6">
         <v>32</v>
@@ -5690,7 +5708,7 @@
         <v>45115</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="6">
         <v>33</v>
@@ -5704,7 +5722,7 @@
         <v>45116</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" s="6">
         <v>22</v>
@@ -10403,7 +10421,7 @@
         <v>45092</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="6">
         <v>28</v>
@@ -10417,7 +10435,7 @@
         <v>45093</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C78" s="6">
         <v>32</v>
@@ -10431,7 +10449,7 @@
         <v>45094</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="6">
         <v>34</v>
@@ -10445,7 +10463,7 @@
         <v>45095</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="6">
         <v>23</v>
@@ -10459,7 +10477,7 @@
         <v>45096</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" s="6">
         <v>20</v>
@@ -10473,7 +10491,7 @@
         <v>45097</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" s="6">
         <v>24</v>
@@ -10487,7 +10505,7 @@
         <v>45098</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="6">
         <v>26</v>
@@ -10501,7 +10519,7 @@
         <v>45099</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="6">
         <v>29</v>
@@ -10515,7 +10533,7 @@
         <v>45100</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C85" s="6">
         <v>32</v>
@@ -10529,7 +10547,7 @@
         <v>45101</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="6">
         <v>33</v>
@@ -10543,7 +10561,7 @@
         <v>45102</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" s="6">
         <v>22</v>
@@ -10557,7 +10575,7 @@
         <v>45103</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" s="6">
         <v>19</v>
@@ -10571,7 +10589,7 @@
         <v>45104</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" s="6">
         <v>21</v>
@@ -10585,7 +10603,7 @@
         <v>45105</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" s="6">
         <v>25</v>
@@ -10599,7 +10617,7 @@
         <v>45106</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="6">
         <v>28</v>
@@ -10613,7 +10631,7 @@
         <v>45107</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C92" s="6">
         <v>31</v>
@@ -10625,7 +10643,7 @@
         <v>45108</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="6">
         <v>34</v>
@@ -10639,7 +10657,7 @@
         <v>45109</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" s="6">
         <v>23</v>
@@ -10653,7 +10671,7 @@
         <v>45110</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" s="6">
         <v>20</v>
@@ -10667,7 +10685,7 @@
         <v>45111</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" s="6">
         <v>23</v>
@@ -10681,7 +10699,7 @@
         <v>45112</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" s="6">
         <v>26</v>
@@ -10695,7 +10713,7 @@
         <v>45113</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" s="6">
         <v>29</v>
@@ -10709,7 +10727,7 @@
         <v>45114</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C99" s="6">
         <v>32</v>
@@ -10723,7 +10741,7 @@
         <v>45115</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="6">
         <v>33</v>
@@ -10737,7 +10755,7 @@
         <v>45116</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" s="6">
         <v>22</v>
@@ -14354,7 +14372,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -14375,7 +14393,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -15739,7 +15757,7 @@
         <v>45092</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="5">
         <f t="shared" si="1"/>
@@ -15757,7 +15775,7 @@
         <v>45093</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="1"/>
@@ -15775,7 +15793,7 @@
         <v>45094</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="5">
         <f t="shared" si="1"/>
@@ -15793,7 +15811,7 @@
         <v>45095</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="1"/>
@@ -15811,7 +15829,7 @@
         <v>45096</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="1"/>
@@ -15829,7 +15847,7 @@
         <v>45097</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="1"/>
@@ -15847,7 +15865,7 @@
         <v>45098</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="1"/>
@@ -15865,7 +15883,7 @@
         <v>45099</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="1"/>
@@ -15883,7 +15901,7 @@
         <v>45100</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="1"/>
@@ -15901,7 +15919,7 @@
         <v>45101</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="1"/>
@@ -15919,7 +15937,7 @@
         <v>45102</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" s="5">
         <f t="shared" si="1"/>
@@ -15937,7 +15955,7 @@
         <v>45103</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="1"/>
@@ -15955,7 +15973,7 @@
         <v>45104</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="1"/>
@@ -15973,7 +15991,7 @@
         <v>45105</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="1"/>
@@ -15991,7 +16009,7 @@
         <v>45106</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="5">
         <f t="shared" si="1"/>
@@ -16009,7 +16027,7 @@
         <v>45108</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="5">
         <f t="shared" si="1"/>
@@ -16027,7 +16045,7 @@
         <v>45109</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" s="5">
         <f t="shared" si="1"/>
@@ -16045,7 +16063,7 @@
         <v>45110</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" s="5">
         <f t="shared" si="1"/>
@@ -16063,7 +16081,7 @@
         <v>45111</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" s="5">
         <f t="shared" si="1"/>
@@ -16081,7 +16099,7 @@
         <v>45112</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" s="5">
         <f t="shared" si="1"/>
@@ -16099,7 +16117,7 @@
         <v>45113</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" s="5">
         <f t="shared" si="1"/>
@@ -16117,7 +16135,7 @@
         <v>45114</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C98" s="5">
         <f t="shared" si="1"/>
@@ -16135,7 +16153,7 @@
         <v>45115</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="5">
         <f t="shared" si="1"/>
@@ -16153,7 +16171,7 @@
         <v>45116</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" s="5">
         <f t="shared" si="1"/>
@@ -20703,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -22087,7 +22105,7 @@
         <v>45092</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="5">
         <f t="shared" si="1"/>
@@ -22105,7 +22123,7 @@
         <v>45093</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="1"/>
@@ -22123,7 +22141,7 @@
         <v>45094</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="5">
         <f t="shared" si="1"/>
@@ -22141,7 +22159,7 @@
         <v>45095</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="1"/>
@@ -22159,7 +22177,7 @@
         <v>45096</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="1"/>
@@ -22177,7 +22195,7 @@
         <v>45097</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="1"/>
@@ -22195,7 +22213,7 @@
         <v>45098</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="1"/>
@@ -22213,7 +22231,7 @@
         <v>45099</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="1"/>
@@ -22231,7 +22249,7 @@
         <v>45100</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="1"/>
@@ -22249,7 +22267,7 @@
         <v>45101</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="1"/>
@@ -22267,7 +22285,7 @@
         <v>45102</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" s="5">
         <f t="shared" si="1"/>
@@ -22285,7 +22303,7 @@
         <v>45103</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="1"/>
@@ -22303,7 +22321,7 @@
         <v>45104</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="1"/>
@@ -22321,7 +22339,7 @@
         <v>45105</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="1"/>
@@ -22339,7 +22357,7 @@
         <v>45106</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="5">
         <f t="shared" si="1"/>
@@ -22357,7 +22375,7 @@
         <v>45108</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="5">
         <f t="shared" si="1"/>
@@ -22375,7 +22393,7 @@
         <v>45109</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" s="5">
         <f t="shared" si="1"/>
@@ -22393,7 +22411,7 @@
         <v>45110</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" s="5">
         <f t="shared" si="1"/>
@@ -22411,7 +22429,7 @@
         <v>45111</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" s="5">
         <f t="shared" si="1"/>
@@ -22429,7 +22447,7 @@
         <v>45112</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" s="5">
         <f t="shared" si="1"/>
@@ -22447,7 +22465,7 @@
         <v>45113</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" s="5">
         <f t="shared" si="1"/>
@@ -22465,7 +22483,7 @@
         <v>45114</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C98" s="5">
         <f t="shared" si="1"/>
@@ -22483,7 +22501,7 @@
         <v>45115</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="5">
         <f t="shared" si="1"/>
@@ -22501,7 +22519,7 @@
         <v>45116</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" s="5">
         <f t="shared" si="1"/>
@@ -27028,8 +27046,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -27052,7 +27070,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -28451,7 +28469,7 @@
         <v>45092</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="5">
         <f t="shared" si="1"/>
@@ -28469,7 +28487,7 @@
         <v>45093</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="1"/>
@@ -28487,7 +28505,7 @@
         <v>45094</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="5">
         <f t="shared" si="1"/>
@@ -28505,7 +28523,7 @@
         <v>45095</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="1"/>
@@ -28523,7 +28541,7 @@
         <v>45096</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="1"/>
@@ -28541,7 +28559,7 @@
         <v>45097</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="1"/>
@@ -28559,7 +28577,7 @@
         <v>45098</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="1"/>
@@ -28577,7 +28595,7 @@
         <v>45099</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="1"/>
@@ -28595,7 +28613,7 @@
         <v>45100</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="1"/>
@@ -28613,7 +28631,7 @@
         <v>45101</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="1"/>
@@ -28631,7 +28649,7 @@
         <v>45102</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" s="5">
         <f t="shared" si="1"/>
@@ -28649,7 +28667,7 @@
         <v>45103</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="1"/>
@@ -28667,7 +28685,7 @@
         <v>45104</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="1"/>
@@ -28685,7 +28703,7 @@
         <v>45105</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="1"/>
@@ -28703,7 +28721,7 @@
         <v>45106</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="5">
         <f t="shared" si="1"/>
@@ -28721,7 +28739,7 @@
         <v>45108</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="5">
         <f t="shared" si="1"/>
@@ -28739,7 +28757,7 @@
         <v>45109</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" s="5">
         <f t="shared" si="1"/>
@@ -28757,7 +28775,7 @@
         <v>45110</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" s="5">
         <f t="shared" si="1"/>
@@ -28775,7 +28793,7 @@
         <v>45111</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" s="5">
         <f t="shared" si="1"/>
@@ -28793,7 +28811,7 @@
         <v>45112</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" s="5">
         <f t="shared" si="1"/>
@@ -28811,7 +28829,7 @@
         <v>45113</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" s="5">
         <f t="shared" si="1"/>
@@ -28829,7 +28847,7 @@
         <v>45114</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C98" s="5">
         <f t="shared" si="1"/>
@@ -28847,7 +28865,7 @@
         <v>45115</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="5">
         <f t="shared" si="1"/>
@@ -28865,7 +28883,7 @@
         <v>45116</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" s="5">
         <f t="shared" si="1"/>
@@ -28883,7 +28901,7 @@
         <v>45117</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C101" s="5">
         <f t="shared" si="1"/>
@@ -28904,7 +28922,7 @@
         <v>45117</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C102" s="20">
         <f>IF(WEEKDAY(A102,2)&gt;=6,1,0)</f>
@@ -28915,7 +28933,7 @@
       </c>
       <c r="E102" s="19"/>
       <c r="F102" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G102" s="22"/>
       <c r="H102" s="23"/>
@@ -33429,7 +33447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -33452,7 +33470,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -34851,7 +34869,7 @@
         <v>45092</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="5">
         <f t="shared" si="1"/>
@@ -34869,7 +34887,7 @@
         <v>45093</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C78" s="5">
         <f t="shared" si="1"/>
@@ -34887,7 +34905,7 @@
         <v>45094</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="5">
         <f t="shared" si="1"/>
@@ -34905,7 +34923,7 @@
         <v>45095</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="5">
         <f t="shared" si="1"/>
@@ -34923,7 +34941,7 @@
         <v>45096</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" s="5">
         <f t="shared" si="1"/>
@@ -34941,7 +34959,7 @@
         <v>45097</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" s="5">
         <f t="shared" si="1"/>
@@ -34959,7 +34977,7 @@
         <v>45098</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="5">
         <f t="shared" si="1"/>
@@ -34977,7 +34995,7 @@
         <v>45099</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="5">
         <f t="shared" si="1"/>
@@ -34995,7 +35013,7 @@
         <v>45100</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C85" s="5">
         <f t="shared" si="1"/>
@@ -35013,7 +35031,7 @@
         <v>45101</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="5">
         <f t="shared" si="1"/>
@@ -35031,7 +35049,7 @@
         <v>45102</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" s="5">
         <f t="shared" si="1"/>
@@ -35049,7 +35067,7 @@
         <v>45103</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" s="5">
         <f t="shared" si="1"/>
@@ -35067,7 +35085,7 @@
         <v>45104</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" s="5">
         <f t="shared" si="1"/>
@@ -35085,7 +35103,7 @@
         <v>45105</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" s="5">
         <f t="shared" si="1"/>
@@ -35103,7 +35121,7 @@
         <v>45106</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="5">
         <f t="shared" si="1"/>
@@ -35121,7 +35139,7 @@
         <v>45108</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="5">
         <f t="shared" si="1"/>
@@ -35139,7 +35157,7 @@
         <v>45109</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" s="5">
         <f t="shared" si="1"/>
@@ -35157,7 +35175,7 @@
         <v>45110</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" s="5">
         <f t="shared" si="1"/>
@@ -35175,7 +35193,7 @@
         <v>45111</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" s="5">
         <f t="shared" si="1"/>
@@ -35193,7 +35211,7 @@
         <v>45112</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" s="5">
         <f t="shared" si="1"/>
@@ -35211,7 +35229,7 @@
         <v>45113</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" s="5">
         <f t="shared" si="1"/>
@@ -35229,7 +35247,7 @@
         <v>45114</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C98" s="5">
         <f t="shared" si="1"/>
@@ -35247,7 +35265,7 @@
         <v>45115</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="5">
         <f t="shared" si="1"/>
@@ -35265,7 +35283,7 @@
         <v>45116</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" s="5">
         <f t="shared" si="1"/>
@@ -35283,7 +35301,7 @@
         <v>45117</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C101" s="5">
         <f t="shared" si="1"/>
@@ -35297,7 +35315,7 @@
         <v>111.239989288434</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G101" s="22"/>
       <c r="H101" s="23"/>
@@ -35307,7 +35325,7 @@
         <v>45117</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C102" s="20">
         <f>IF(WEEKDAY(A102,2)&gt;=6,1,0)</f>
@@ -35321,7 +35339,7 @@
         <v>109.30467882931181</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G102" s="22"/>
       <c r="H102" s="23"/>
